--- a/natmiOut/YoungD2/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.88814400936699</v>
+        <v>3.893987000000001</v>
       </c>
       <c r="H2">
-        <v>2.88814400936699</v>
+        <v>11.681961</v>
       </c>
       <c r="I2">
-        <v>0.1187716737336556</v>
+        <v>0.143037189732266</v>
       </c>
       <c r="J2">
-        <v>0.1187716737336556</v>
+        <v>0.143037189732266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N2">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O2">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P2">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q2">
-        <v>16.64611945981046</v>
+        <v>36.29000276053034</v>
       </c>
       <c r="R2">
-        <v>16.64611945981046</v>
+        <v>326.610024844773</v>
       </c>
       <c r="S2">
-        <v>0.04612101149959338</v>
+        <v>0.06622055040955956</v>
       </c>
       <c r="T2">
-        <v>0.04612101149959338</v>
+        <v>0.06622055040955956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.88814400936699</v>
+        <v>3.893987000000001</v>
       </c>
       <c r="H3">
-        <v>2.88814400936699</v>
+        <v>11.681961</v>
       </c>
       <c r="I3">
-        <v>0.1187716737336556</v>
+        <v>0.143037189732266</v>
       </c>
       <c r="J3">
-        <v>0.1187716737336556</v>
+        <v>0.143037189732266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N3">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O3">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P3">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q3">
-        <v>24.51770012756156</v>
+        <v>39.31163153488134</v>
       </c>
       <c r="R3">
-        <v>24.51770012756156</v>
+        <v>353.8046838139321</v>
       </c>
       <c r="S3">
-        <v>0.06793061483530435</v>
+        <v>0.07173429814585104</v>
       </c>
       <c r="T3">
-        <v>0.06793061483530435</v>
+        <v>0.07173429814585104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.88814400936699</v>
+        <v>3.893987000000001</v>
       </c>
       <c r="H4">
-        <v>2.88814400936699</v>
+        <v>11.681961</v>
       </c>
       <c r="I4">
-        <v>0.1187716737336556</v>
+        <v>0.143037189732266</v>
       </c>
       <c r="J4">
-        <v>0.1187716737336556</v>
+        <v>0.143037189732266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N4">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O4">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P4">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q4">
-        <v>1.703572196294592</v>
+        <v>2.785210545628667</v>
       </c>
       <c r="R4">
-        <v>1.703572196294592</v>
+        <v>25.066894910658</v>
       </c>
       <c r="S4">
-        <v>0.004720047398757829</v>
+        <v>0.005082341176855415</v>
       </c>
       <c r="T4">
-        <v>0.004720047398757829</v>
+        <v>0.005082341176855415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9085508085821939</v>
+        <v>0.9333873333333332</v>
       </c>
       <c r="H5">
-        <v>0.9085508085821939</v>
+        <v>2.800162</v>
       </c>
       <c r="I5">
-        <v>0.03736313004385974</v>
+        <v>0.03428596476867894</v>
       </c>
       <c r="J5">
-        <v>0.03736313004385974</v>
+        <v>0.03428596476867894</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N5">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O5">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P5">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q5">
-        <v>5.236527418963906</v>
+        <v>8.698701075096222</v>
       </c>
       <c r="R5">
-        <v>5.236527418963906</v>
+        <v>78.288309675866</v>
       </c>
       <c r="S5">
-        <v>0.01450872330281356</v>
+        <v>0.01587304296564019</v>
       </c>
       <c r="T5">
-        <v>0.01450872330281356</v>
+        <v>0.01587304296564019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9085508085821939</v>
+        <v>0.9333873333333332</v>
       </c>
       <c r="H6">
-        <v>0.9085508085821939</v>
+        <v>2.800162</v>
       </c>
       <c r="I6">
-        <v>0.03736313004385974</v>
+        <v>0.03428596476867894</v>
       </c>
       <c r="J6">
-        <v>0.03736313004385974</v>
+        <v>0.03428596476867894</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N6">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O6">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P6">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q6">
-        <v>7.712765084852565</v>
+        <v>9.422984444304889</v>
       </c>
       <c r="R6">
-        <v>7.712765084852565</v>
+        <v>84.806859998744</v>
       </c>
       <c r="S6">
-        <v>0.02136957673714771</v>
+        <v>0.01719468638567467</v>
       </c>
       <c r="T6">
-        <v>0.02136957673714771</v>
+        <v>0.01719468638567467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9085508085821939</v>
+        <v>0.9333873333333332</v>
       </c>
       <c r="H7">
-        <v>0.9085508085821939</v>
+        <v>2.800162</v>
       </c>
       <c r="I7">
-        <v>0.03736313004385974</v>
+        <v>0.03428596476867894</v>
       </c>
       <c r="J7">
-        <v>0.03736313004385974</v>
+        <v>0.03428596476867894</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N7">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O7">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P7">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q7">
-        <v>0.5359088367483558</v>
+        <v>0.6676140017817778</v>
       </c>
       <c r="R7">
-        <v>0.5359088367483558</v>
+        <v>6.008526016036</v>
       </c>
       <c r="S7">
-        <v>0.001484830003898462</v>
+        <v>0.001218235417364072</v>
       </c>
       <c r="T7">
-        <v>0.001484830003898462</v>
+        <v>0.001218235417364072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.97411792146403</v>
+        <v>6.286864</v>
       </c>
       <c r="H8">
-        <v>4.97411792146403</v>
+        <v>18.860592</v>
       </c>
       <c r="I8">
-        <v>0.2045550045166689</v>
+        <v>0.2309343505227297</v>
       </c>
       <c r="J8">
-        <v>0.2045550045166689</v>
+        <v>0.2309343505227297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N8">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O8">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P8">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q8">
-        <v>28.66884783422626</v>
+        <v>58.59041437865067</v>
       </c>
       <c r="R8">
-        <v>28.66884783422626</v>
+        <v>527.313729407856</v>
       </c>
       <c r="S8">
-        <v>0.07943210210852934</v>
+        <v>0.1069134525693191</v>
       </c>
       <c r="T8">
-        <v>0.07943210210852934</v>
+        <v>0.1069134525693191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.97411792146403</v>
+        <v>6.286864</v>
       </c>
       <c r="H9">
-        <v>4.97411792146403</v>
+        <v>18.860592</v>
       </c>
       <c r="I9">
-        <v>0.2045550045166689</v>
+        <v>0.2309343505227297</v>
       </c>
       <c r="J9">
-        <v>0.2045550045166689</v>
+        <v>0.2309343505227297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N9">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O9">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P9">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q9">
-        <v>42.22571007611017</v>
+        <v>63.46885109732268</v>
       </c>
       <c r="R9">
-        <v>42.22571007611017</v>
+        <v>571.2196598759041</v>
       </c>
       <c r="S9">
-        <v>0.1169937813254734</v>
+        <v>0.1158154294244993</v>
       </c>
       <c r="T9">
-        <v>0.1169937813254734</v>
+        <v>0.1158154294244993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.97411792146403</v>
+        <v>6.286864</v>
       </c>
       <c r="H10">
-        <v>4.97411792146403</v>
+        <v>18.860592</v>
       </c>
       <c r="I10">
-        <v>0.2045550045166689</v>
+        <v>0.2309343505227297</v>
       </c>
       <c r="J10">
-        <v>0.2045550045166689</v>
+        <v>0.2309343505227297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N10">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O10">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P10">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q10">
-        <v>2.933984235070748</v>
+        <v>4.496738153397334</v>
       </c>
       <c r="R10">
-        <v>2.933984235070748</v>
+        <v>40.470643380576</v>
       </c>
       <c r="S10">
-        <v>0.008129121082666097</v>
+        <v>0.008205468528911354</v>
       </c>
       <c r="T10">
-        <v>0.008129121082666097</v>
+        <v>0.008205468528911354</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.288604358250129</v>
+        <v>8.572307333333333</v>
       </c>
       <c r="H11">
-        <v>8.288604358250129</v>
+        <v>25.716922</v>
       </c>
       <c r="I11">
-        <v>0.3408595310180559</v>
+        <v>0.3148851679477345</v>
       </c>
       <c r="J11">
-        <v>0.3408595310180559</v>
+        <v>0.3148851679477346</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N11">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O11">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P11">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q11">
-        <v>47.77223637569845</v>
+        <v>79.88959819094956</v>
       </c>
       <c r="R11">
-        <v>47.77223637569845</v>
+        <v>719.006383718546</v>
       </c>
       <c r="S11">
-        <v>0.1323614112324753</v>
+        <v>0.1457793541409452</v>
       </c>
       <c r="T11">
-        <v>0.1323614112324753</v>
+        <v>0.1457793541409453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.288604358250129</v>
+        <v>8.572307333333333</v>
       </c>
       <c r="H12">
-        <v>8.288604358250129</v>
+        <v>25.716922</v>
       </c>
       <c r="I12">
-        <v>0.3408595310180559</v>
+        <v>0.3148851679477345</v>
       </c>
       <c r="J12">
-        <v>0.3408595310180559</v>
+        <v>0.3148851679477346</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N12">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O12">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P12">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q12">
-        <v>70.36266732977654</v>
+        <v>86.54147722931822</v>
       </c>
       <c r="R12">
-        <v>70.36266732977654</v>
+        <v>778.873295063864</v>
       </c>
       <c r="S12">
-        <v>0.1949521867179751</v>
+        <v>0.1579174378464023</v>
       </c>
       <c r="T12">
-        <v>0.1949521867179751</v>
+        <v>0.1579174378464023</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.288604358250129</v>
+        <v>8.572307333333333</v>
       </c>
       <c r="H13">
-        <v>8.288604358250129</v>
+        <v>25.716922</v>
       </c>
       <c r="I13">
-        <v>0.3408595310180559</v>
+        <v>0.3148851679477345</v>
       </c>
       <c r="J13">
-        <v>0.3408595310180559</v>
+        <v>0.3148851679477346</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N13">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O13">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P13">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q13">
-        <v>4.889034578956439</v>
+        <v>6.131422828368445</v>
       </c>
       <c r="R13">
-        <v>4.889034578956439</v>
+        <v>55.182805455316</v>
       </c>
       <c r="S13">
-        <v>0.0135459330676056</v>
+        <v>0.01118837596038703</v>
       </c>
       <c r="T13">
-        <v>0.0135459330676056</v>
+        <v>0.01118837596038704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.96998684126897</v>
+        <v>4.116573333333334</v>
       </c>
       <c r="H14">
-        <v>3.96998684126897</v>
+        <v>12.34972</v>
       </c>
       <c r="I14">
-        <v>0.1632612433136428</v>
+        <v>0.1512134172319493</v>
       </c>
       <c r="J14">
-        <v>0.1632612433136428</v>
+        <v>0.1512134172319493</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N14">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O14">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P14">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q14">
-        <v>22.88143354324048</v>
+        <v>38.36439557466223</v>
       </c>
       <c r="R14">
-        <v>22.88143354324048</v>
+        <v>345.27956017196</v>
       </c>
       <c r="S14">
-        <v>0.06339704951192221</v>
+        <v>0.07000581972529661</v>
       </c>
       <c r="T14">
-        <v>0.06339704951192221</v>
+        <v>0.07000581972529661</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.96998684126897</v>
+        <v>4.116573333333334</v>
       </c>
       <c r="H15">
-        <v>3.96998684126897</v>
+        <v>12.34972</v>
       </c>
       <c r="I15">
-        <v>0.1632612433136428</v>
+        <v>0.1512134172319493</v>
       </c>
       <c r="J15">
-        <v>0.1632612433136428</v>
+        <v>0.1512134172319493</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N15">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O15">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P15">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q15">
-        <v>33.7015559365862</v>
+        <v>41.5587453338489</v>
       </c>
       <c r="R15">
-        <v>33.7015559365862</v>
+        <v>374.0287080046401</v>
       </c>
       <c r="S15">
-        <v>0.09337610802675209</v>
+        <v>0.0758347418295421</v>
       </c>
       <c r="T15">
-        <v>0.09337610802675209</v>
+        <v>0.0758347418295421</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.96998684126897</v>
+        <v>4.116573333333334</v>
       </c>
       <c r="H16">
-        <v>3.96998684126897</v>
+        <v>12.34972</v>
       </c>
       <c r="I16">
-        <v>0.1632612433136428</v>
+        <v>0.1512134172319493</v>
       </c>
       <c r="J16">
-        <v>0.1632612433136428</v>
+        <v>0.1512134172319493</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N16">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O16">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P16">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q16">
-        <v>2.341697360140822</v>
+        <v>2.944417498017779</v>
       </c>
       <c r="R16">
-        <v>2.341697360140822</v>
+        <v>26.49975748216</v>
       </c>
       <c r="S16">
-        <v>0.006488085774968483</v>
+        <v>0.005372855677110619</v>
       </c>
       <c r="T16">
-        <v>0.006488085774968483</v>
+        <v>0.005372855677110619</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.28737057957475</v>
+        <v>3.420479333333333</v>
       </c>
       <c r="H17">
-        <v>3.28737057957475</v>
+        <v>10.261438</v>
       </c>
       <c r="I17">
-        <v>0.1351894173741172</v>
+        <v>0.1256439097966415</v>
       </c>
       <c r="J17">
-        <v>0.1351894173741172</v>
+        <v>0.1256439097966415</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.76360437908319</v>
+        <v>9.319497666666667</v>
       </c>
       <c r="N17">
-        <v>5.76360437908319</v>
+        <v>27.958493</v>
       </c>
       <c r="O17">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="P17">
-        <v>0.3883165914039348</v>
+        <v>0.4629603708903243</v>
       </c>
       <c r="Q17">
-        <v>18.94710346810627</v>
+        <v>31.87714916588155</v>
       </c>
       <c r="R17">
-        <v>18.94710346810627</v>
+        <v>286.894342492934</v>
       </c>
       <c r="S17">
-        <v>0.05249629374860109</v>
+        <v>0.05816815107956359</v>
       </c>
       <c r="T17">
-        <v>0.05249629374860109</v>
+        <v>0.05816815107956359</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.28737057957475</v>
+        <v>3.420479333333333</v>
       </c>
       <c r="H18">
-        <v>3.28737057957475</v>
+        <v>10.261438</v>
       </c>
       <c r="I18">
-        <v>0.1351894173741172</v>
+        <v>0.1256439097966415</v>
       </c>
       <c r="J18">
-        <v>0.1351894173741172</v>
+        <v>0.1256439097966415</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.489085048406309</v>
+        <v>10.09547066666667</v>
       </c>
       <c r="N18">
-        <v>8.489085048406309</v>
+        <v>30.286412</v>
       </c>
       <c r="O18">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="P18">
-        <v>0.5719428942934505</v>
+        <v>0.5015080223550378</v>
       </c>
       <c r="Q18">
-        <v>27.9067684356388</v>
+        <v>34.53134877560623</v>
       </c>
       <c r="R18">
-        <v>27.9067684356388</v>
+        <v>310.782138980456</v>
       </c>
       <c r="S18">
-        <v>0.07732062665079789</v>
+        <v>0.06301142872306843</v>
       </c>
       <c r="T18">
-        <v>0.07732062665079789</v>
+        <v>0.06301142872306843</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.28737057957475</v>
+        <v>3.420479333333333</v>
       </c>
       <c r="H19">
-        <v>3.28737057957475</v>
+        <v>10.261438</v>
       </c>
       <c r="I19">
-        <v>0.1351894173741172</v>
+        <v>0.1256439097966415</v>
       </c>
       <c r="J19">
-        <v>0.1351894173741172</v>
+        <v>0.1256439097966415</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.589850156629819</v>
+        <v>0.7152593333333334</v>
       </c>
       <c r="N19">
-        <v>0.589850156629819</v>
+        <v>2.145778</v>
       </c>
       <c r="O19">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="P19">
-        <v>0.03974051430261472</v>
+        <v>0.03553160675463796</v>
       </c>
       <c r="Q19">
-        <v>1.939056051262425</v>
+        <v>2.446529767640444</v>
       </c>
       <c r="R19">
-        <v>1.939056051262425</v>
+        <v>22.018767908764</v>
       </c>
       <c r="S19">
-        <v>0.005372496974718258</v>
+        <v>0.00446432999400947</v>
       </c>
       <c r="T19">
-        <v>0.005372496974718258</v>
+        <v>0.00446432999400947</v>
       </c>
     </row>
   </sheetData>
